--- a/Incomplete_Stats_Whitelist.xlsx
+++ b/Incomplete_Stats_Whitelist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bigba\aa Personal Projects\Letterboxd List Scraping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6802A427-05AB-420B-8D2A-D2F99C6F98D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FAADB8-0264-4790-A4D0-0DF3214F959B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
     <t>Year</t>
   </si>
   <si>
-    <t>The Human Condition III: A Soldier's Prayer</t>
+    <t>Link</t>
   </si>
 </sst>
 </file>
@@ -391,28 +391,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
-      </c>
-      <c r="B2">
-        <v>1961</v>
       </c>
     </row>
   </sheetData>

--- a/Incomplete_Stats_Whitelist.xlsx
+++ b/Incomplete_Stats_Whitelist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bigba\aa Personal Projects\Letterboxd List Scraping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FAADB8-0264-4790-A4D0-0DF3214F959B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AFC1A16-9FFB-4C9F-A563-FC04B5E8658B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Title</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>Link</t>
+  </si>
+  <si>
+    <t>Blank</t>
   </si>
 </sst>
 </file>
@@ -391,22 +394,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>

--- a/Incomplete_Stats_Whitelist.xlsx
+++ b/Incomplete_Stats_Whitelist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bigba\aa Personal Projects\Letterboxd List Scraping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/calebcollins/Documents/Letterboxd List Scraping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AFC1A16-9FFB-4C9F-A563-FC04B5E8658B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F92C520-37AF-3E4D-A7A3-E40DD4742A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="760" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>Title</t>
   </si>
@@ -32,13 +32,328 @@
   </si>
   <si>
     <t>Blank</t>
+  </si>
+  <si>
+    <t>Flow</t>
+  </si>
+  <si>
+    <t>https://letterboxd.com/film/flow-2024/</t>
+  </si>
+  <si>
+    <t>The Adventures of Prince Achmed</t>
+  </si>
+  <si>
+    <t>https://letterboxd.com/film/the-adventures-of-prince-achmed/</t>
+  </si>
+  <si>
+    <t>Wasteland</t>
+  </si>
+  <si>
+    <t>https://letterboxd.com/film/wasteland-2019-1/</t>
+  </si>
+  <si>
+    <t>Compasso de Espera</t>
+  </si>
+  <si>
+    <t>https://letterboxd.com/film/compasso-de-espera/</t>
+  </si>
+  <si>
+    <t>El Keif</t>
+  </si>
+  <si>
+    <t>https://letterboxd.com/film/el-keif/</t>
+  </si>
+  <si>
+    <t>Personal Problems</t>
+  </si>
+  <si>
+    <t>https://letterboxd.com/film/personal-problems/</t>
+  </si>
+  <si>
+    <t>The School of Mischief</t>
+  </si>
+  <si>
+    <t>https://letterboxd.com/film/the-school-of-mischief-1973/</t>
+  </si>
+  <si>
+    <t>Pretend That You Love Me</t>
+  </si>
+  <si>
+    <t>https://letterboxd.com/film/pretend-that-you-love-me/</t>
+  </si>
+  <si>
+    <t>The White Archer</t>
+  </si>
+  <si>
+    <t>https://letterboxd.com/film/the-white-archer/</t>
+  </si>
+  <si>
+    <t>Devi</t>
+  </si>
+  <si>
+    <t>https://letterboxd.com/film/devi/</t>
+  </si>
+  <si>
+    <t>The Bus Driver</t>
+  </si>
+  <si>
+    <t>https://letterboxd.com/film/the-bus-driver/</t>
+  </si>
+  <si>
+    <t>Bush Mama</t>
+  </si>
+  <si>
+    <t>https://letterboxd.com/film/bush-mama/</t>
+  </si>
+  <si>
+    <t>Terrorism and Kebab</t>
+  </si>
+  <si>
+    <t>https://letterboxd.com/film/terrorism-and-kebab/</t>
+  </si>
+  <si>
+    <t>Bless Their Little Hearts</t>
+  </si>
+  <si>
+    <t>https://letterboxd.com/film/bless-their-little-hearts/</t>
+  </si>
+  <si>
+    <t>A Cultural Film</t>
+  </si>
+  <si>
+    <t>https://letterboxd.com/film/a-cultural-film/</t>
+  </si>
+  <si>
+    <t>The Shame</t>
+  </si>
+  <si>
+    <t>https://letterboxd.com/film/the-shame-1982/</t>
+  </si>
+  <si>
+    <t>Gossip Over the Nile</t>
+  </si>
+  <si>
+    <t>https://letterboxd.com/film/gossip-over-the-nile/</t>
+  </si>
+  <si>
+    <t>Deadwood Park</t>
+  </si>
+  <si>
+    <t>https://letterboxd.com/film/deadwood-park/</t>
+  </si>
+  <si>
+    <t>Consuming Spirits</t>
+  </si>
+  <si>
+    <t>https://letterboxd.com/film/consuming-spirits/</t>
+  </si>
+  <si>
+    <t>Gundi: Legend of Love</t>
+  </si>
+  <si>
+    <t>https://letterboxd.com/film/gundi-legend-of-love/</t>
+  </si>
+  <si>
+    <t>The Connection</t>
+  </si>
+  <si>
+    <t>https://letterboxd.com/film/the-connection/</t>
+  </si>
+  <si>
+    <t>Red, White and Blue</t>
+  </si>
+  <si>
+    <t>https://letterboxd.com/film/red-white-and-blue-2020/</t>
+  </si>
+  <si>
+    <t>Moscow Square</t>
+  </si>
+  <si>
+    <t>https://letterboxd.com/film/moscow-square/</t>
+  </si>
+  <si>
+    <t>Vidheyan</t>
+  </si>
+  <si>
+    <t>https://letterboxd.com/film/vidheyan/</t>
+  </si>
+  <si>
+    <t>Billy Star</t>
+  </si>
+  <si>
+    <t>https://letterboxd.com/film/billy-star/</t>
+  </si>
+  <si>
+    <t>Travellers</t>
+  </si>
+  <si>
+    <t>https://letterboxd.com/film/travellers-1992/</t>
+  </si>
+  <si>
+    <t>The Empire of Desire</t>
+  </si>
+  <si>
+    <t>https://letterboxd.com/film/the-empire-of-desire/</t>
+  </si>
+  <si>
+    <t>The Seamstress</t>
+  </si>
+  <si>
+    <t>https://letterboxd.com/film/the-seamstress-2017/</t>
+  </si>
+  <si>
+    <t>Codependent Lesbian Space Alien Seeks Same</t>
+  </si>
+  <si>
+    <t>https://letterboxd.com/film/codependent-lesbian-space-alien-seeks-same/</t>
+  </si>
+  <si>
+    <t>Drowning in Potential</t>
+  </si>
+  <si>
+    <t>https://letterboxd.com/film/drowning-in-potential/</t>
+  </si>
+  <si>
+    <t>A River Called Titas</t>
+  </si>
+  <si>
+    <t>https://letterboxd.com/film/a-river-called-titas/</t>
+  </si>
+  <si>
+    <t>The Tenants</t>
+  </si>
+  <si>
+    <t>https://letterboxd.com/film/the-tenants/</t>
+  </si>
+  <si>
+    <t>The Pear Tree</t>
+  </si>
+  <si>
+    <t>https://letterboxd.com/film/the-pear-tree/</t>
+  </si>
+  <si>
+    <t>Pajarito G√≥mez</t>
+  </si>
+  <si>
+    <t>https://letterboxd.com/film/pajarito-gomez/</t>
+  </si>
+  <si>
+    <t>Birds of Darkness</t>
+  </si>
+  <si>
+    <t>https://letterboxd.com/film/birds-of-darkness/</t>
+  </si>
+  <si>
+    <t>Day Night Day Night</t>
+  </si>
+  <si>
+    <t>https://letterboxd.com/film/day-night-day-night/</t>
+  </si>
+  <si>
+    <t>A Thousand Desires Like These</t>
+  </si>
+  <si>
+    <t>https://letterboxd.com/film/a-thousand-desires-like-these/</t>
+  </si>
+  <si>
+    <t>Dreams That Money Can Buy</t>
+  </si>
+  <si>
+    <t>https://letterboxd.com/film/dreams-that-money-can-buy/</t>
+  </si>
+  <si>
+    <t>Company Limited</t>
+  </si>
+  <si>
+    <t>https://letterboxd.com/film/company-limited/</t>
+  </si>
+  <si>
+    <t>Red Like the Sky</t>
+  </si>
+  <si>
+    <t>https://letterboxd.com/film/red-like-the-sky/</t>
+  </si>
+  <si>
+    <t>The Hero's Journey aka My Life aka The Caleb Johnston Story (I'm Caleb)</t>
+  </si>
+  <si>
+    <t>https://letterboxd.com/film/the-heros-journey-aka-my-life-aka-the-caleb-johnston-story-im-caleb/</t>
+  </si>
+  <si>
+    <t>Tito</t>
+  </si>
+  <si>
+    <t>https://letterboxd.com/film/tito-2004/</t>
+  </si>
+  <si>
+    <t>Whistle If You Come Back</t>
+  </si>
+  <si>
+    <t>https://letterboxd.com/film/whistle-if-you-come-back/</t>
+  </si>
+  <si>
+    <t>https://letterboxd.com/film/9-2002/</t>
+  </si>
+  <si>
+    <t>The Report</t>
+  </si>
+  <si>
+    <t>https://letterboxd.com/film/the-report/</t>
+  </si>
+  <si>
+    <t>Smile, The Photo Comes Out Better</t>
+  </si>
+  <si>
+    <t>https://letterboxd.com/film/smile-the-photo-comes-out-better/</t>
+  </si>
+  <si>
+    <t>Crayon Shin-chan: Shrouded in Mystery! The Flowers of Tenkazu Academy</t>
+  </si>
+  <si>
+    <t>https://letterboxd.com/film/crayon-shin-chan-shrouded-in-mystery-the-flowers-of-tenkazu-academy/</t>
+  </si>
+  <si>
+    <t>Alma's Rainbow</t>
+  </si>
+  <si>
+    <t>https://letterboxd.com/film/almas-rainbow/</t>
+  </si>
+  <si>
+    <t>You Are My Sunday</t>
+  </si>
+  <si>
+    <t>https://letterboxd.com/film/you-are-my-sunday/</t>
+  </si>
+  <si>
+    <t>Christmas, Again</t>
+  </si>
+  <si>
+    <t>https://letterboxd.com/film/christmas-again/</t>
+  </si>
+  <si>
+    <t>The Butterfly's Dream</t>
+  </si>
+  <si>
+    <t>https://letterboxd.com/film/the-butterflys-dream/</t>
+  </si>
+  <si>
+    <t>You Are Not I</t>
+  </si>
+  <si>
+    <t>https://letterboxd.com/film/you-are-not-i/</t>
+  </si>
+  <si>
+    <t>No Longer Kids</t>
+  </si>
+  <si>
+    <t>https://letterboxd.com/film/no-longer-kids/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,6 +365,15 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -84,16 +408,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -394,15 +721,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -416,7 +743,601 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>2024</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>1926</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>2019</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>1973</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>1985</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>1980</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>1973</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>2020</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>2010</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>1960</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12">
+        <v>1982</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <v>1979</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14">
+        <v>1992</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15">
+        <v>1983</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16">
+        <v>2000</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17">
+        <v>1982</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18">
+        <v>1971</v>
+      </c>
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19">
+        <v>2007</v>
+      </c>
+      <c r="D19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20">
+        <v>2012</v>
+      </c>
+      <c r="D20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21">
+        <v>2024</v>
+      </c>
+      <c r="D21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22">
+        <v>1961</v>
+      </c>
+      <c r="D22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23">
+        <v>2020</v>
+      </c>
+      <c r="D23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24">
+        <v>2001</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25">
+        <v>1994</v>
+      </c>
+      <c r="D25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26">
+        <v>2017</v>
+      </c>
+      <c r="D26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27">
+        <v>1992</v>
+      </c>
+      <c r="D27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28">
+        <v>1981</v>
+      </c>
+      <c r="D28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29">
+        <v>2017</v>
+      </c>
+      <c r="D29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30">
+        <v>2011</v>
+      </c>
+      <c r="D30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31">
+        <v>2021</v>
+      </c>
+      <c r="D31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32">
+        <v>1973</v>
+      </c>
+      <c r="D32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33">
+        <v>1987</v>
+      </c>
+      <c r="D33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34">
+        <v>1998</v>
+      </c>
+      <c r="D34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35">
+        <v>1965</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36">
+        <v>1995</v>
+      </c>
+      <c r="D36" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37">
+        <v>2006</v>
+      </c>
+      <c r="D37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38">
+        <v>2003</v>
+      </c>
+      <c r="D38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39">
+        <v>1947</v>
+      </c>
+      <c r="D39" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40">
+        <v>1971</v>
+      </c>
+      <c r="D40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41">
+        <v>2006</v>
+      </c>
+      <c r="D41" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42">
+        <v>2024</v>
+      </c>
+      <c r="D42" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43">
+        <v>2004</v>
+      </c>
+      <c r="D43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44">
+        <v>1993</v>
+      </c>
+      <c r="D44" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>9</v>
+      </c>
+      <c r="B45">
+        <v>2002</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46">
+        <v>1977</v>
+      </c>
+      <c r="D46" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47">
+        <v>1998</v>
+      </c>
+      <c r="D47" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48">
+        <v>2021</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49">
+        <v>1994</v>
+      </c>
+      <c r="D49" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50">
+        <v>2017</v>
+      </c>
+      <c r="D50" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51">
+        <v>2014</v>
+      </c>
+      <c r="D51" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>103</v>
+      </c>
+      <c r="B52">
+        <v>2013</v>
+      </c>
+      <c r="D52" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>105</v>
+      </c>
+      <c r="B53">
+        <v>1981</v>
+      </c>
+      <c r="D53" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>107</v>
+      </c>
+      <c r="B54">
+        <v>1979</v>
+      </c>
+      <c r="D54" t="s">
+        <v>108</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{3E588A76-0783-194D-9805-6E772B477F1A}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{B90A6170-4EBF-EF4A-9CC4-4DDDF2B14E29}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{265AE3AC-F268-6B44-BE62-80768C02F79F}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{F957D9F9-C648-EF4A-8F31-5602B8529B90}"/>
+    <hyperlink ref="D7" r:id="rId5" xr:uid="{98A99B85-E1D6-C843-AE99-0E65343E1DC1}"/>
+    <hyperlink ref="D24" r:id="rId6" xr:uid="{E0766FB7-E2E5-9541-A596-50F59D9CCBAC}"/>
+    <hyperlink ref="D35" r:id="rId7" xr:uid="{30A13332-EC84-7243-A6AA-ACD43C089D4D}"/>
+    <hyperlink ref="D45" r:id="rId8" xr:uid="{EF1888DB-D827-9E43-8771-2E563C8CB470}"/>
+    <hyperlink ref="D48" r:id="rId9" xr:uid="{6B58875D-BABE-4C4B-B00D-A09E3F12FC55}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Incomplete_Stats_Whitelist.xlsx
+++ b/Incomplete_Stats_Whitelist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/calebcollins/Documents/Letterboxd List Scraping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F92C520-37AF-3E4D-A7A3-E40DD4742A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5584AD17-3F49-E44A-9B79-3C52477D0486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="760" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <si>
     <t>Title</t>
   </si>
@@ -347,6 +347,72 @@
   </si>
   <si>
     <t>https://letterboxd.com/film/no-longer-kids/</t>
+  </si>
+  <si>
+    <t>Seret Efes</t>
+  </si>
+  <si>
+    <t>https://letterboxd.com/film/seret-efes/</t>
+  </si>
+  <si>
+    <t>Bottom Feeders</t>
+  </si>
+  <si>
+    <t>https://letterboxd.com/film/bottom-feeders-1999/</t>
+  </si>
+  <si>
+    <t>Le√≥n</t>
+  </si>
+  <si>
+    <t>https://letterboxd.com/film/leon/</t>
+  </si>
+  <si>
+    <t>Anyone Else But Me</t>
+  </si>
+  <si>
+    <t>https://letterboxd.com/film/anyone-else-but-me/</t>
+  </si>
+  <si>
+    <t>The Conspirators</t>
+  </si>
+  <si>
+    <t>https://letterboxd.com/film/the-conspirators-1972/</t>
+  </si>
+  <si>
+    <t>Night of the Coconut</t>
+  </si>
+  <si>
+    <t>https://letterboxd.com/film/night-of-the-coconut-2022/</t>
+  </si>
+  <si>
+    <t>Mommy, I'm Scared</t>
+  </si>
+  <si>
+    <t>https://letterboxd.com/film/mommy-im-scared/</t>
+  </si>
+  <si>
+    <t>Empire M</t>
+  </si>
+  <si>
+    <t>https://letterboxd.com/film/empire-m/</t>
+  </si>
+  <si>
+    <t>The Book of Sun</t>
+  </si>
+  <si>
+    <t>https://letterboxd.com/film/the-book-of-sun/</t>
+  </si>
+  <si>
+    <t>The Last Guest</t>
+  </si>
+  <si>
+    <t>https://letterboxd.com/film/the-last-guest/</t>
+  </si>
+  <si>
+    <t>Cremaster 2</t>
+  </si>
+  <si>
+    <t>https://letterboxd.com/film/cremaster-2/</t>
   </si>
 </sst>
 </file>
@@ -721,10 +787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="L59" sqref="L59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1324,6 +1390,127 @@
       </c>
       <c r="D54" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55">
+        <v>2015</v>
+      </c>
+      <c r="D55" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>111</v>
+      </c>
+      <c r="B56">
+        <v>1999</v>
+      </c>
+      <c r="D56" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>113</v>
+      </c>
+      <c r="B57">
+        <v>2013</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>115</v>
+      </c>
+      <c r="B58">
+        <v>2024</v>
+      </c>
+      <c r="D58" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>117</v>
+      </c>
+      <c r="B59">
+        <v>1972</v>
+      </c>
+      <c r="D59" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>119</v>
+      </c>
+      <c r="B60">
+        <v>2022</v>
+      </c>
+      <c r="D60" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>121</v>
+      </c>
+      <c r="B61">
+        <v>2004</v>
+      </c>
+      <c r="D61" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>123</v>
+      </c>
+      <c r="B62">
+        <v>1972</v>
+      </c>
+      <c r="D62" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>125</v>
+      </c>
+      <c r="B63">
+        <v>2020</v>
+      </c>
+      <c r="D63" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>127</v>
+      </c>
+      <c r="B64">
+        <v>2019</v>
+      </c>
+      <c r="D64" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>129</v>
+      </c>
+      <c r="B65">
+        <v>1999</v>
+      </c>
+      <c r="D65" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1337,6 +1524,7 @@
     <hyperlink ref="D35" r:id="rId7" xr:uid="{30A13332-EC84-7243-A6AA-ACD43C089D4D}"/>
     <hyperlink ref="D45" r:id="rId8" xr:uid="{EF1888DB-D827-9E43-8771-2E563C8CB470}"/>
     <hyperlink ref="D48" r:id="rId9" xr:uid="{6B58875D-BABE-4C4B-B00D-A09E3F12FC55}"/>
+    <hyperlink ref="D57" r:id="rId10" xr:uid="{569D15E1-CB49-2841-9CD3-C7EF352F4C26}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Incomplete_Stats_Whitelist.xlsx
+++ b/Incomplete_Stats_Whitelist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/calebcollins/Documents/Letterboxd List Scraping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5584AD17-3F49-E44A-9B79-3C52477D0486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46F8BBE-4DA0-4947-AC33-84E07802FBCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <si>
     <t>Title</t>
   </si>
@@ -413,6 +413,15 @@
   </si>
   <si>
     <t>https://letterboxd.com/film/cremaster-2/</t>
+  </si>
+  <si>
+    <t>NEKO-MIMI</t>
+  </si>
+  <si>
+    <t>https://letterboxd.com/film/neko-mimi/</t>
+  </si>
+  <si>
+    <t>Missing or blank fields: Genres</t>
   </si>
 </sst>
 </file>
@@ -787,10 +796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="L59" sqref="L59"/>
+      <selection activeCell="O57" sqref="O57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1502,7 +1511,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>129</v>
       </c>
@@ -1511,6 +1520,20 @@
       </c>
       <c r="D65" t="s">
         <v>130</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>131</v>
+      </c>
+      <c r="B66">
+        <v>1993</v>
+      </c>
+      <c r="D66" t="s">
+        <v>132</v>
+      </c>
+      <c r="E66" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
